--- a/ЦМ_GIT/laba_8.xlsx
+++ b/ЦМ_GIT/laba_8.xlsx
@@ -5,26 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osnov\Documents\ЦМ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osnov\Desktop\GIT_UNIVERSITY\ЦМ_GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C98F6E1-55F5-4A73-8B1A-2C92AE8083EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D44F1AF-4F79-4604-A824-1310A423653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3B8E55F-FB33-4FC1-9366-6AA65A134666}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7197468-570A-4025-BB5F-0AE43515F2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$E$51</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-  </definedNames>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>p=</t>
   </si>
@@ -74,6 +67,9 @@
     <t>q=</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>события</t>
   </si>
   <si>
@@ -119,24 +115,24 @@
     <t>длительность работ</t>
   </si>
   <si>
+    <t>событиеj</t>
+  </si>
+  <si>
     <t>событие i</t>
   </si>
   <si>
+    <t>tp</t>
+  </si>
+  <si>
     <t>tn</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
-    <t>tp</t>
-  </si>
-  <si>
     <t>Резерв времени R</t>
   </si>
   <si>
-    <t>нужно нажать F2</t>
-  </si>
-  <si>
     <t>Работа</t>
   </si>
   <si>
@@ -164,67 +160,7 @@
     <t>t по(I, j)</t>
   </si>
   <si>
-    <t>событиеj</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>Этап</t>
-  </si>
-  <si>
-    <t>Строки</t>
-  </si>
-  <si>
-    <t>A7, A10</t>
-  </si>
-  <si>
-    <t>A8,A9</t>
-  </si>
-  <si>
-    <t>A3,A5</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>определили резерв времени для каждого события и нашли критический путь</t>
   </si>
   <si>
     <t>tр - ранний срок</t>
@@ -236,22 +172,19 @@
     <t>tрн - ранний срок начала работы</t>
   </si>
   <si>
+    <t>Расчитали ранние и позднии сроки</t>
+  </si>
+  <si>
     <t>tро - ранний срок окончания работы</t>
   </si>
   <si>
+    <t xml:space="preserve">Диаграмма ганта </t>
+  </si>
+  <si>
     <t>tпн - поздний срок начала работы</t>
   </si>
   <si>
     <t>tпо - поздний срок окончания работы</t>
-  </si>
-  <si>
-    <t>определили резерв времени для каждого события и нашли критический путь</t>
-  </si>
-  <si>
-    <t>Расчитали ранние и позднии сроки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Диаграмма ганта </t>
   </si>
   <si>
     <t>мы не можем сдвинуть критические работы</t>
@@ -286,7 +219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +318,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$35:$A$47</c:f>
+              <c:f>[1]Лист1!$A$35:$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -464,7 +397,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>46</c:v>
@@ -480,7 +413,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-8B06-42B8-B59E-D01F17A6FAC3}"/>
+              <c16:uniqueId val="{00000000-F609-48CD-8FC5-4FA176C87527}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -510,7 +443,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$35:$A$47</c:f>
+              <c:f>[1]Лист1!$A$35:$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -605,7 +538,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-8B06-42B8-B59E-D01F17A6FAC3}"/>
+              <c16:uniqueId val="{00000001-F609-48CD-8FC5-4FA176C87527}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1330,27 +1263,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BBB765-AC28-8C58-F708-13C61B6556C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56077F02-9FAF-4E64-AAA8-F1D820FBB0D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1365,6 +1300,95 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="34">
+          <cell r="E34" t="str">
+            <v>t п(i)</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>A</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>B</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>C</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>E</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>F</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>G</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>H</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>I</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>J</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>K</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>L</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>M</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1663,21 +1687,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B381B1-8CF0-4996-9957-71EAD51EB1B0}">
-  <dimension ref="A1:V56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CF579F-8BFB-4C26-8E0F-3EEC2AC2A0AA}">
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1693,56 +1712,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1762,7 +1781,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1784,7 +1803,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1808,7 +1827,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1834,7 +1853,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1858,7 +1877,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1880,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1904,7 +1923,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1926,7 +1945,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1950,7 +1969,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1972,7 +1991,7 @@
       </c>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1991,10 +2010,13 @@
         <v>-1</v>
       </c>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <f>3+B1+B2</f>
@@ -2047,13 +2069,10 @@
       <c r="N16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>20</v>
@@ -2063,16 +2082,25 @@
         <v>tn</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
@@ -2088,9 +2116,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -2143,12 +2171,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
+        <f>B16</f>
         <v>4</v>
       </c>
       <c r="D20" s="2"/>
@@ -2179,13 +2208,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
+        <f>C16</f>
         <v>7</v>
       </c>
       <c r="E21" s="2"/>
@@ -2215,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -2223,9 +2253,11 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
+        <f>E16</f>
         <v>5</v>
       </c>
       <c r="F22" s="2">
+        <f>D16</f>
         <v>6</v>
       </c>
       <c r="G22" s="2"/>
@@ -2253,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -2262,12 +2294,15 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
+        <f>F16</f>
         <v>15</v>
       </c>
       <c r="G23" s="2">
+        <f>J16</f>
         <v>8</v>
       </c>
       <c r="H23" s="2">
+        <f>I16</f>
         <v>10</v>
       </c>
       <c r="I23" s="2"/>
@@ -2293,7 +2328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -2305,6 +2340,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2">
+        <f>G16</f>
         <v>6</v>
       </c>
       <c r="J24" s="2"/>
@@ -2329,7 +2365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -2340,6 +2376,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2">
+        <f>N16</f>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -2365,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -2378,6 +2415,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
+        <f>K16</f>
         <v>7</v>
       </c>
       <c r="K26" s="2"/>
@@ -2401,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -2414,6 +2452,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2">
+        <f>H16</f>
         <v>5</v>
       </c>
       <c r="K27" s="2"/>
@@ -2437,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>9</v>
       </c>
@@ -2451,6 +2490,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2">
+        <f>L16</f>
         <v>4</v>
       </c>
       <c r="L28" s="2"/>
@@ -2473,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -2488,18 +2528,15 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2">
+        <f>M16</f>
         <v>8</v>
       </c>
       <c r="M29" s="1">
         <f>M28+K28</f>
         <v>46</v>
       </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>11</v>
       </c>
@@ -2519,9 +2556,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1">
         <f>$M$30-B32</f>
@@ -2569,84 +2606,85 @@
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1">
         <f>C32+C20</f>
         <v>54</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <f>D32+D21</f>
         <v>50</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <f>MAX(E32+E22,F32+F22)</f>
         <v>43</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <f>MAX(F32+F23,G32+G23,H32+H23)</f>
         <v>38</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <f>I32+F22</f>
         <v>23</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <f>H32+H25</f>
         <v>19</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <f>J32+J26</f>
         <v>19</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <f>J32+J27</f>
         <v>17</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <f>K32+K28</f>
         <v>12</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <f>L32+L29</f>
         <v>8</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>0</v>
       </c>
+      <c r="M32" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2665,6 +2703,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <f>S19</f>
         <v>4</v>
       </c>
       <c r="F35" s="1" cm="1">
@@ -2703,6 +2742,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="3">
+        <f>S20</f>
         <v>11</v>
       </c>
       <c r="F36" s="1">
@@ -2736,10 +2776,11 @@
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37" si="7">R20</f>
+        <f>R20</f>
         <v>11</v>
       </c>
       <c r="E37" s="3">
+        <f>S22</f>
         <v>31</v>
       </c>
       <c r="F37" s="1">
@@ -2773,10 +2814,11 @@
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <f>11</f>
+        <f>R20</f>
         <v>11</v>
       </c>
       <c r="E38" s="3">
+        <f>S21</f>
         <v>16</v>
       </c>
       <c r="F38" s="1">
@@ -2810,9 +2852,11 @@
         <v>5</v>
       </c>
       <c r="D39" s="1">
+        <f>R21</f>
         <v>16</v>
       </c>
       <c r="E39" s="3">
+        <f>S22</f>
         <v>31</v>
       </c>
       <c r="F39" s="1">
@@ -2846,10 +2890,11 @@
         <v>8</v>
       </c>
       <c r="D40" s="1">
-        <f>31</f>
+        <f>R22</f>
         <v>31</v>
       </c>
       <c r="E40" s="3">
+        <f>S25</f>
         <v>37</v>
       </c>
       <c r="F40" s="1">
@@ -2883,10 +2928,11 @@
         <v>9</v>
       </c>
       <c r="D41" s="1">
-        <f>37</f>
+        <f>R25</f>
         <v>37</v>
       </c>
       <c r="E41" s="3">
+        <f>S26</f>
         <v>42</v>
       </c>
       <c r="F41" s="1">
@@ -2920,10 +2966,11 @@
         <v>7</v>
       </c>
       <c r="D42" s="1">
-        <f>16</f>
+        <f>R21</f>
         <v>16</v>
       </c>
       <c r="E42" s="3">
+        <f>S24</f>
         <v>35</v>
       </c>
       <c r="F42" s="1">
@@ -2957,10 +3004,11 @@
         <v>6</v>
       </c>
       <c r="D43" s="1">
-        <f>16</f>
+        <f>R21</f>
         <v>16</v>
       </c>
       <c r="E43" s="3">
+        <f>S23</f>
         <v>35</v>
       </c>
       <c r="F43" s="1">
@@ -2994,10 +3042,12 @@
         <v>9</v>
       </c>
       <c r="D44" s="1">
+        <f>R24</f>
         <v>26</v>
       </c>
       <c r="E44" s="3">
-        <v>42</v>
+        <f>S24</f>
+        <v>35</v>
       </c>
       <c r="F44" s="1">
         <v>7</v>
@@ -3012,11 +3062,11 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -3030,10 +3080,11 @@
         <v>10</v>
       </c>
       <c r="D45" s="1">
-        <f>42</f>
+        <f>R26</f>
         <v>42</v>
       </c>
       <c r="E45" s="3">
+        <f>S27</f>
         <v>46</v>
       </c>
       <c r="F45" s="1">
@@ -3067,6 +3118,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="1">
+        <f>R27</f>
         <v>46</v>
       </c>
       <c r="E46" s="3">
@@ -3103,9 +3155,11 @@
         <v>7</v>
       </c>
       <c r="D47" s="1">
+        <f>R23</f>
         <v>24</v>
       </c>
       <c r="E47" s="3">
+        <f>S24</f>
         <v>35</v>
       </c>
       <c r="F47" s="1">
@@ -3130,1234 +3184,47 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230C4633-D3F8-4EA0-9945-9343DCE63245}">
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>